--- a/public/docs/Tabela_Tarefas-Sistemna.xlsx
+++ b/public/docs/Tabela_Tarefas-Sistemna.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="23">
   <si>
     <t>DATA</t>
   </si>
@@ -53,12 +53,48 @@
   <si>
     <t>MOSTRAR MENSAGEM DE USUARIO OU SENHA INVÁLIDOS OU DE USUARIO INATIVO</t>
   </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>LISTAGENS</t>
+  </si>
+  <si>
+    <t>CRIAR AS LISTAGENS DA PÁGINA DO INDEX</t>
+  </si>
+  <si>
+    <t>LISTAR CARTOES</t>
+  </si>
+  <si>
+    <t>LISTAR OS LANÇAMENTOS DO CARTÃO DE CRÉDITO</t>
+  </si>
+  <si>
+    <t>CRIAR A PÁGINA DE VANTAGENS DO SISTEMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESENVOLVER UMA PÁGINA NO SITE QUE EXPLIQUE AS VANTAGENS DE USAR O SISTEMA </t>
+  </si>
+  <si>
+    <t>INICIADO</t>
+  </si>
+  <si>
+    <t>INCLUIR SALDO DIÁRIO DOS LANÇAMENTOS</t>
+  </si>
+  <si>
+    <t>MEHORAR MENSAGENS</t>
+  </si>
+  <si>
+    <t>MELHORAR AS MENSAGENS DO SISTEMA E SEU LAYOUT</t>
+  </si>
+  <si>
+    <t>MELHORAR O LAYOUT DOS CHAMADOS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,14 +105,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -118,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -142,7 +170,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,15 +467,16 @@
   <dimension ref="B2:E591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" customWidth="1"/>
     <col min="4" max="4" width="98.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15.75">
@@ -476,7 +504,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -490,7 +518,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -504,55 +532,89 @@
         <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3">
         <v>41654</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="3">
+        <v>41654</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="E7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="3">
+        <v>41654</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E8" s="5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="7"/>
+      <c r="B9" s="3">
+        <v>41654</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E9" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="3">
+        <v>41654</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E10" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="3">
+        <v>41654</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E11" s="5" t="s">
         <v>4</v>
       </c>

--- a/public/docs/Tabela_Tarefas-Sistemna.xlsx
+++ b/public/docs/Tabela_Tarefas-Sistemna.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$B$2:$E$591</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -467,7 +467,7 @@
   <dimension ref="B2:E591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -588,7 +588,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -5260,7 +5260,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E2"/>
+  <autoFilter ref="B2:E591"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
